--- a/apps/integration/pro_data.xlsx
+++ b/apps/integration/pro_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
   <si>
     <t>product_code</t>
   </si>
@@ -185,19 +185,7 @@
     <t>北京</t>
   </si>
   <si>
-    <t>能源(电力/水利)</t>
-  </si>
-  <si>
     <t>在职</t>
-  </si>
-  <si>
-    <t>预测</t>
-  </si>
-  <si>
-    <t>Lead Project control</t>
-  </si>
-  <si>
-    <t>GE Wuhan Boiler CO,. Ltd.</t>
   </si>
   <si>
     <t>北京朝阳</t>
@@ -437,10 +425,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">13488898888 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13901328888</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -493,6 +477,38 @@
   </si>
   <si>
     <t>24d00a7db67cefdbbd2cd2af59565c84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13488898888 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源(电力/水利)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lead Project control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE Wuhan Boiler CO,. Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京朝阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京理工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -930,7 +946,7 @@
   <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -944,6 +960,15 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.125" customWidth="1"/>
+    <col min="45" max="45" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="1" customFormat="1">
@@ -951,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1081,22 +1106,22 @@
     </row>
     <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1108,7 +1133,7 @@
         <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -1117,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1132,13 +1157,13 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1147,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="X2">
         <v>13</v>
@@ -1165,16 +1190,16 @@
         <v>330</v>
       </c>
       <c r="AC2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="AE2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="AG2">
         <v>201009</v>
@@ -1186,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="AJ2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -1222,19 +1247,19 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -1246,7 +1271,7 @@
         <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -1255,7 +1280,7 @@
         <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1276,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1285,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1303,16 +1328,16 @@
         <v>150</v>
       </c>
       <c r="AC3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="s">
         <v>43</v>
       </c>
       <c r="AE3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG3">
         <v>201009</v>
@@ -1324,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="AJ3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1360,19 +1385,19 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G4">
         <v>200</v>
@@ -1384,7 +1409,7 @@
         <v>170</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>14</v>
@@ -1393,7 +1418,7 @@
         <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1414,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1423,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X4">
         <v>12</v>
@@ -1441,16 +1466,16 @@
         <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD4" t="s">
         <v>43</v>
       </c>
       <c r="AE4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG4">
         <v>201009</v>
@@ -1462,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -1498,19 +1523,19 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -1522,7 +1547,7 @@
         <v>210</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -1531,7 +1556,7 @@
         <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1552,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1561,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X5">
         <v>13</v>
@@ -1579,16 +1604,16 @@
         <v>210</v>
       </c>
       <c r="AC5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD5" t="s">
         <v>43</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG5">
         <v>201009</v>
@@ -1600,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1636,19 +1661,19 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6">
         <v>200</v>
@@ -1660,7 +1685,7 @@
         <v>390</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>35</v>
@@ -1669,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1684,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1699,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X6">
         <v>12</v>
@@ -1717,16 +1742,16 @@
         <v>390</v>
       </c>
       <c r="AC6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s">
         <v>43</v>
       </c>
       <c r="AE6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG6">
         <v>201009</v>
@@ -1738,7 +1763,7 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1774,19 +1799,19 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>200</v>
@@ -1798,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K7">
         <v>16</v>
@@ -1807,7 +1832,7 @@
         <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1828,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1837,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X7">
         <v>14</v>
@@ -1855,16 +1880,16 @@
         <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s">
         <v>43</v>
       </c>
       <c r="AE7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG7">
         <v>201009</v>
@@ -1876,7 +1901,7 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1912,19 +1937,19 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G8">
         <v>200</v>
@@ -1936,7 +1961,7 @@
         <v>240</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K8">
         <v>26</v>
@@ -1945,7 +1970,7 @@
         <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1966,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1975,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X8">
         <v>12</v>
@@ -1993,16 +2018,16 @@
         <v>240</v>
       </c>
       <c r="AC8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s">
         <v>43</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG8">
         <v>201009</v>
@@ -2014,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2050,19 +2075,19 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>200</v>
@@ -2074,7 +2099,7 @@
         <v>340</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>18</v>
@@ -2083,7 +2108,7 @@
         <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2098,13 +2123,13 @@
         <v>202</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2113,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X9">
         <v>13</v>
@@ -2131,16 +2156,16 @@
         <v>340</v>
       </c>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AD9" t="s">
         <v>43</v>
       </c>
       <c r="AE9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG9">
         <v>201009</v>
@@ -2152,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="AJ9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -2188,19 +2213,19 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>200</v>
@@ -2212,7 +2237,7 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>15</v>
@@ -2221,7 +2246,7 @@
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2236,13 +2261,13 @@
         <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2251,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="X10">
         <v>12</v>
@@ -2269,16 +2294,16 @@
         <v>30</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AD10" t="s">
         <v>43</v>
       </c>
       <c r="AE10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG10">
         <v>201009</v>
@@ -2290,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2326,19 +2351,19 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>200</v>
@@ -2350,7 +2375,7 @@
         <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -2359,7 +2384,7 @@
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2374,13 +2399,13 @@
         <v>191</v>
       </c>
       <c r="R11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2389,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X11">
         <v>13</v>
@@ -2407,16 +2432,16 @@
         <v>170</v>
       </c>
       <c r="AC11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD11" t="s">
         <v>43</v>
       </c>
       <c r="AE11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG11">
         <v>201009</v>
@@ -2428,7 +2453,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AK11">
         <v>0</v>
